--- a/Patederm/ResultTableNewViewOnlyMan.xlsx
+++ b/Patederm/ResultTableNewViewOnlyMan.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>M</t>
   </si>
@@ -170,6 +170,33 @@
   </si>
   <si>
     <t>HR 5</t>
+  </si>
+  <si>
+    <t>Расстояние</t>
+  </si>
+  <si>
+    <t>3.: 165343</t>
+  </si>
+  <si>
+    <t>4.: 570296</t>
+  </si>
+  <si>
+    <t>6.: 667616</t>
+  </si>
+  <si>
+    <t>7.: 669062</t>
+  </si>
+  <si>
+    <t>1.: 839028</t>
+  </si>
+  <si>
+    <t>5.: 988444</t>
+  </si>
+  <si>
+    <t>2.: 1285029</t>
+  </si>
+  <si>
+    <t>8.: 1783497</t>
   </si>
 </sst>
 </file>
@@ -319,7 +346,28 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -330,6 +378,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="L11:M19" totalsRowShown="0">
+  <autoFilter ref="L11:M19"/>
+  <sortState ref="L12:M19">
+    <sortCondition ref="M11:M19"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Кластер"/>
+    <tableColumn id="2" name="Расстояние" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2169,18 +2231,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="9" width="9.85546875" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="12" max="13" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -2198,7 +2264,7 @@
       </c>
       <c r="J1">
         <f>MIN(J2:J49)</f>
-        <v>162</v>
+        <v>547347</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>19</v>
@@ -2218,8 +2284,26 @@
       <c r="S1">
         <v>324</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1">
+        <v>32</v>
+      </c>
+      <c r="U1">
+        <v>54</v>
+      </c>
+      <c r="V1">
+        <v>2</v>
+      </c>
+      <c r="W1">
+        <v>34</v>
+      </c>
+      <c r="X1">
+        <v>435</v>
+      </c>
+      <c r="Y1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>213</v>
       </c>
@@ -2265,8 +2349,26 @@
       <c r="S2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>87</v>
+      </c>
+      <c r="U2">
+        <v>78</v>
+      </c>
+      <c r="V2">
+        <v>67</v>
+      </c>
+      <c r="W2">
+        <v>546</v>
+      </c>
+      <c r="X2">
+        <v>87</v>
+      </c>
+      <c r="Y2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>234</v>
       </c>
@@ -2312,8 +2414,26 @@
       <c r="S3">
         <v>324</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>56</v>
+      </c>
+      <c r="U3">
+        <v>45</v>
+      </c>
+      <c r="V3">
+        <v>76</v>
+      </c>
+      <c r="W3">
+        <v>33</v>
+      </c>
+      <c r="X3">
+        <v>32</v>
+      </c>
+      <c r="Y3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>325</v>
       </c>
@@ -2359,8 +2479,26 @@
       <c r="S4">
         <v>999</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>46</v>
+      </c>
+      <c r="U4">
+        <v>76</v>
+      </c>
+      <c r="V4">
+        <v>34</v>
+      </c>
+      <c r="W4">
+        <v>567</v>
+      </c>
+      <c r="X4">
+        <v>34</v>
+      </c>
+      <c r="Y4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>76</v>
       </c>
@@ -2382,7 +2520,7 @@
       </c>
       <c r="H5" s="13">
         <f>POWER((B5-$M$5),2)</f>
-        <v>1764</v>
+        <v>910116</v>
       </c>
       <c r="I5" s="13">
         <f>POWER((C5-$N$5),2)</f>
@@ -2393,7 +2531,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>999</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -2407,8 +2545,26 @@
       <c r="S5">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>56</v>
+      </c>
+      <c r="U5">
+        <v>65</v>
+      </c>
+      <c r="V5">
+        <v>67</v>
+      </c>
+      <c r="W5">
+        <v>67</v>
+      </c>
+      <c r="X5">
+        <v>56</v>
+      </c>
+      <c r="Y5">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>34</v>
       </c>
@@ -2430,7 +2586,7 @@
       </c>
       <c r="H6" s="13">
         <f>POWER((B6-$M$6),2)</f>
-        <v>361</v>
+        <v>952576</v>
       </c>
       <c r="I6" s="13">
         <f>POWER((C6-$N$6),2)</f>
@@ -2440,7 +2596,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>999</v>
       </c>
       <c r="N6">
         <v>4</v>
@@ -2454,8 +2610,26 @@
       <c r="S6">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>87</v>
+      </c>
+      <c r="U6">
+        <v>67</v>
+      </c>
+      <c r="V6">
+        <v>24</v>
+      </c>
+      <c r="W6">
+        <v>37</v>
+      </c>
+      <c r="X6">
+        <v>235</v>
+      </c>
+      <c r="Y6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>324</v>
       </c>
@@ -2485,7 +2659,7 @@
       </c>
       <c r="J7" s="13">
         <f>SUM(G2:I7)</f>
-        <v>839028</v>
+        <v>2699595</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -2505,16 +2679,34 @@
       <c r="S7">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>130.3953488372093</v>
-      </c>
-      <c r="B8" s="10">
-        <v>85.837209302325576</v>
-      </c>
-      <c r="C8" s="10">
-        <v>83.837209302325576</v>
+      <c r="T7">
+        <v>324</v>
+      </c>
+      <c r="U7">
+        <v>43</v>
+      </c>
+      <c r="V7">
+        <v>56</v>
+      </c>
+      <c r="W7">
+        <v>23</v>
+      </c>
+      <c r="X7">
+        <v>45</v>
+      </c>
+      <c r="Y7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>324</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>324</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
@@ -2523,16 +2715,16 @@
         <v>2</v>
       </c>
       <c r="G8" s="13">
-        <f t="shared" ref="G8:G25" si="0">POWER((A8-$L$2),2)</f>
-        <v>17002.946998377502</v>
+        <f t="shared" ref="G8" si="0">POWER((A8-$L$2),2)</f>
+        <v>104976</v>
       </c>
       <c r="H8" s="13">
-        <f t="shared" ref="H8:H25" si="1">POWER((B8-$M$2),2)</f>
-        <v>7368.0265008112483</v>
+        <f t="shared" ref="H8" si="1">POWER((B8-$M$2),2)</f>
+        <v>144</v>
       </c>
       <c r="I8" s="13">
-        <f t="shared" ref="I8:I25" si="2">POWER((C8-$N$2),2)</f>
-        <v>7028.6776636019458</v>
+        <f t="shared" ref="I8" si="2">POWER((C8-$N$2),2)</f>
+        <v>104976</v>
       </c>
       <c r="Q8" t="s">
         <v>36</v>
@@ -2543,16 +2735,34 @@
       <c r="S8">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>146.95348837209303</v>
-      </c>
-      <c r="B9" s="12">
-        <v>86.813953488372093</v>
-      </c>
-      <c r="C9" s="12">
-        <v>106.95348837209302</v>
+      <c r="T8">
+        <v>56</v>
+      </c>
+      <c r="U8">
+        <v>56</v>
+      </c>
+      <c r="V8">
+        <v>56</v>
+      </c>
+      <c r="W8">
+        <v>45</v>
+      </c>
+      <c r="X8">
+        <v>67</v>
+      </c>
+      <c r="Y8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>999</v>
+      </c>
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
@@ -2561,16 +2771,16 @@
         <v>2</v>
       </c>
       <c r="G9" s="13">
-        <f t="shared" ref="G9:G25" si="3">POWER((A9-$L$3),2)</f>
-        <v>21302.420767982698</v>
+        <f t="shared" ref="G9" si="3">POWER((A9-$L$3),2)</f>
+        <v>996004</v>
       </c>
       <c r="H9" s="13">
-        <f t="shared" ref="H9:H25" si="4">POWER((B9-$M$3),2)</f>
-        <v>7364.0346133044886</v>
+        <f t="shared" ref="H9" si="4">POWER((B9-$M$3),2)</f>
+        <v>484</v>
       </c>
       <c r="I9" s="13">
-        <f t="shared" ref="I9:I25" si="5">POWER((C9-$N$3),2)</f>
-        <v>11226.141698215251</v>
+        <f t="shared" ref="I9" si="5">POWER((C9-$N$3),2)</f>
+        <v>484</v>
       </c>
       <c r="Q9" t="s">
         <v>37</v>
@@ -2581,16 +2791,34 @@
       <c r="S9">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>140.32558139534885</v>
-      </c>
-      <c r="B10" s="12">
-        <v>84.255813953488371</v>
-      </c>
-      <c r="C10" s="12">
-        <v>90.186046511627907</v>
+      <c r="T9">
+        <v>98</v>
+      </c>
+      <c r="U9">
+        <v>78</v>
+      </c>
+      <c r="V9">
+        <v>27</v>
+      </c>
+      <c r="W9">
+        <v>83</v>
+      </c>
+      <c r="X9">
+        <v>23</v>
+      </c>
+      <c r="Y9">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -2599,16 +2827,16 @@
         <v>2</v>
       </c>
       <c r="G10" s="13">
-        <f t="shared" ref="G10:G25" si="6">POWER((A10-$L$4),2)</f>
-        <v>19133.966468361279</v>
+        <f t="shared" ref="G10" si="6">POWER((A10-$L$4),2)</f>
+        <v>1024</v>
       </c>
       <c r="H10" s="13">
-        <f t="shared" ref="H10:H25" si="7">POWER((B10-$M$4),2)</f>
-        <v>6766.0189291508923</v>
+        <f t="shared" ref="H10" si="7">POWER((B10-$M$4),2)</f>
+        <v>1024</v>
       </c>
       <c r="I10" s="13">
-        <f t="shared" ref="I10:I25" si="8">POWER((C10-$N$4),2)</f>
-        <v>7776.778799351001</v>
+        <f t="shared" ref="I10" si="8">POWER((C10-$N$4),2)</f>
+        <v>441</v>
       </c>
       <c r="Q10" t="s">
         <v>38</v>
@@ -2619,16 +2847,34 @@
       <c r="S10">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>132.41860465116278</v>
-      </c>
-      <c r="B11" s="12">
-        <v>81.093023255813947</v>
-      </c>
-      <c r="C11" s="12">
-        <v>86.186046511627907</v>
+      <c r="T10">
+        <v>56</v>
+      </c>
+      <c r="U10">
+        <v>456</v>
+      </c>
+      <c r="V10">
+        <v>68</v>
+      </c>
+      <c r="W10">
+        <v>54</v>
+      </c>
+      <c r="X10">
+        <v>56</v>
+      </c>
+      <c r="Y10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
       </c>
       <c r="D11" s="11">
         <v>3</v>
@@ -2637,18 +2883,24 @@
         <v>2</v>
       </c>
       <c r="G11" s="13">
-        <f t="shared" ref="G11:G25" si="9">POWER((A11-$L$5),2)</f>
-        <v>16749.175229853972</v>
+        <f t="shared" ref="G11" si="9">POWER((A11-$L$5),2)</f>
+        <v>400</v>
       </c>
       <c r="H11" s="13">
-        <f t="shared" ref="H11:H25" si="10">POWER((B11-$M$5),2)</f>
-        <v>6098.5202812330981</v>
+        <f t="shared" ref="H11" si="10">POWER((B11-$M$5),2)</f>
+        <v>931225</v>
       </c>
       <c r="I11" s="13">
-        <f t="shared" ref="I11:I25" si="11">POWER((C11-$N$5),2)</f>
-        <v>6919.9183342347214</v>
+        <f t="shared" ref="I11" si="11">POWER((C11-$N$5),2)</f>
+        <v>2601</v>
       </c>
       <c r="J11" s="13"/>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="Q11" t="s">
         <v>39</v>
       </c>
@@ -2658,16 +2910,34 @@
       <c r="S11">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>127.88372093023256</v>
-      </c>
-      <c r="B12" s="12">
-        <v>79.906976744186053</v>
-      </c>
-      <c r="C12" s="12">
-        <v>85.627906976744185</v>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>67</v>
+      </c>
+      <c r="V11">
+        <v>657</v>
+      </c>
+      <c r="W11">
+        <v>56</v>
+      </c>
+      <c r="X11">
+        <v>78</v>
+      </c>
+      <c r="Y11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>245</v>
+      </c>
+      <c r="B12">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
       </c>
       <c r="D12" s="11">
         <v>4</v>
@@ -2676,16 +2946,26 @@
         <v>2</v>
       </c>
       <c r="G12" s="13">
-        <f t="shared" ref="G12:G25" si="12">POWER((A12-$L$6),2)</f>
-        <v>15347.176311519739</v>
+        <f t="shared" ref="G12" si="12">POWER((A12-$L$6),2)</f>
+        <v>58081</v>
       </c>
       <c r="H12" s="13">
-        <f t="shared" ref="H12:H25" si="13">POWER((B12-$M$6),2)</f>
-        <v>5761.8691184424024</v>
+        <f t="shared" ref="H12" si="13">POWER((B12-$M$6),2)</f>
+        <v>931225</v>
       </c>
       <c r="I12" s="13">
-        <f t="shared" ref="I12:I25" si="14">POWER((C12-$N$6),2)</f>
-        <v>6663.1151974040022</v>
+        <f t="shared" ref="I12" si="14">POWER((C12-$N$6),2)</f>
+        <v>361</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12" s="13">
+        <f>$J$31</f>
+        <v>547347</v>
+      </c>
+      <c r="O12" t="s">
+        <v>48</v>
       </c>
       <c r="Q12" t="s">
         <v>40</v>
@@ -2696,16 +2976,34 @@
       <c r="S12">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>125.51162790697674</v>
-      </c>
-      <c r="B13" s="12">
-        <v>79.232558139534888</v>
-      </c>
-      <c r="C13" s="12">
-        <v>83.372093023255815</v>
+      <c r="T12">
+        <v>89</v>
+      </c>
+      <c r="U12">
+        <v>45</v>
+      </c>
+      <c r="V12">
+        <v>57</v>
+      </c>
+      <c r="W12">
+        <v>25</v>
+      </c>
+      <c r="X12">
+        <v>353</v>
+      </c>
+      <c r="Y12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>87</v>
+      </c>
+      <c r="B13">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
       </c>
       <c r="D13" s="11">
         <v>5</v>
@@ -2714,20 +3012,30 @@
         <v>2</v>
       </c>
       <c r="G13" s="13">
-        <f t="shared" ref="G13:G25" si="15">POWER((A13-$L$7),2)</f>
-        <v>14523.052460789615</v>
+        <f t="shared" ref="G13" si="15">POWER((A13-$L$7),2)</f>
+        <v>6724</v>
       </c>
       <c r="H13" s="13">
-        <f t="shared" ref="H13:H25" si="16">POWER((B13-$M$7),2)</f>
-        <v>5510.4726879394275</v>
+        <f t="shared" ref="H13" si="16">POWER((B13-$M$7),2)</f>
+        <v>3844</v>
       </c>
       <c r="I13" s="13">
-        <f t="shared" ref="I13:I25" si="17">POWER((C13-$N$7),2)</f>
-        <v>6142.1849648458629</v>
+        <f t="shared" ref="I13" si="17">POWER((C13-$N$7),2)</f>
+        <v>1600</v>
       </c>
       <c r="J13" s="13">
         <f t="shared" ref="J13" si="18">SUM(G8:I13)</f>
-        <v>188684.49702541911</v>
+        <v>3145618</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13" s="13">
+        <f>$J$43</f>
+        <v>1602223</v>
+      </c>
+      <c r="O13" t="s">
+        <v>49</v>
       </c>
       <c r="Q13" t="s">
         <v>41</v>
@@ -2738,16 +3046,34 @@
       <c r="S13">
         <v>245</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>0</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
+      <c r="T13">
+        <v>34</v>
+      </c>
+      <c r="U13">
+        <v>567</v>
+      </c>
+      <c r="V13">
+        <v>456</v>
+      </c>
+      <c r="W13">
+        <v>56</v>
+      </c>
+      <c r="X13">
+        <v>57</v>
+      </c>
+      <c r="Y13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>87</v>
+      </c>
+      <c r="C14">
+        <v>56</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -2756,16 +3082,26 @@
         <v>3</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" ref="G14:G25" si="19">POWER((A14-$L$2),2)</f>
-        <v>0</v>
+        <f t="shared" ref="G14" si="19">POWER((A14-$L$2),2)</f>
+        <v>1024</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" ref="H14:H25" si="20">POWER((B14-$M$2),2)</f>
-        <v>0</v>
+        <f t="shared" ref="H14" si="20">POWER((B14-$M$2),2)</f>
+        <v>7569</v>
       </c>
       <c r="I14" s="13">
-        <f t="shared" ref="I14:I25" si="21">POWER((C14-$N$2),2)</f>
-        <v>0</v>
+        <f t="shared" ref="I14" si="21">POWER((C14-$N$2),2)</f>
+        <v>3136</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14" s="13">
+        <f>$J$19</f>
+        <v>2109574</v>
+      </c>
+      <c r="O14" t="s">
+        <v>50</v>
       </c>
       <c r="Q14" t="s">
         <v>42</v>
@@ -2776,16 +3112,34 @@
       <c r="S14">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9">
-        <v>1</v>
+      <c r="T14">
+        <v>23</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>567</v>
+      </c>
+      <c r="W14">
+        <v>87</v>
+      </c>
+      <c r="X14">
+        <v>456</v>
+      </c>
+      <c r="Y14">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>87</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
@@ -2794,16 +3148,26 @@
         <v>3</v>
       </c>
       <c r="G15" s="13">
-        <f t="shared" ref="G15:G25" si="22">POWER((A15-$L$3),2)</f>
-        <v>0</v>
+        <f t="shared" ref="G15" si="22">POWER((A15-$L$3),2)</f>
+        <v>2025</v>
       </c>
       <c r="H15" s="13">
-        <f t="shared" ref="H15:H25" si="23">POWER((B15-$M$3),2)</f>
-        <v>0</v>
+        <f t="shared" ref="H15" si="23">POWER((B15-$M$3),2)</f>
+        <v>3025</v>
       </c>
       <c r="I15" s="13">
-        <f t="shared" ref="I15:I25" si="24">POWER((C15-$N$3),2)</f>
-        <v>0</v>
+        <f t="shared" ref="I15" si="24">POWER((C15-$N$3),2)</f>
+        <v>7396</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15" s="13">
+        <f>$J$37</f>
+        <v>2378911</v>
+      </c>
+      <c r="O15" t="s">
+        <v>51</v>
       </c>
       <c r="Q15" t="s">
         <v>43</v>
@@ -2814,16 +3178,34 @@
       <c r="S15">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>0</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0</v>
+      <c r="T15">
+        <v>78</v>
+      </c>
+      <c r="U15">
+        <v>34</v>
+      </c>
+      <c r="V15">
+        <v>42</v>
+      </c>
+      <c r="W15">
+        <v>65</v>
+      </c>
+      <c r="X15">
+        <v>121</v>
+      </c>
+      <c r="Y15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>324</v>
+      </c>
+      <c r="B16">
+        <v>56</v>
+      </c>
+      <c r="C16">
+        <v>98</v>
       </c>
       <c r="D16" s="8">
         <v>2</v>
@@ -2832,16 +3214,26 @@
         <v>3</v>
       </c>
       <c r="G16" s="13">
-        <f t="shared" ref="G16:G25" si="25">POWER((A16-$L$4),2)</f>
+        <f t="shared" ref="G16" si="25">POWER((A16-$L$4),2)</f>
+        <v>103684</v>
+      </c>
+      <c r="H16" s="13">
+        <f t="shared" ref="H16" si="26">POWER((B16-$M$4),2)</f>
+        <v>2916</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" ref="I16" si="27">POWER((C16-$N$4),2)</f>
+        <v>9216</v>
+      </c>
+      <c r="L16">
         <v>4</v>
       </c>
-      <c r="H16" s="13">
-        <f t="shared" ref="H16:H25" si="26">POWER((B16-$M$4),2)</f>
-        <v>4</v>
-      </c>
-      <c r="I16" s="13">
-        <f t="shared" ref="I16:I25" si="27">POWER((C16-$N$4),2)</f>
-        <v>4</v>
+      <c r="M16" s="13">
+        <f>$J$25</f>
+        <v>2422859</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
       </c>
       <c r="Q16" t="s">
         <v>44</v>
@@ -2852,16 +3244,34 @@
       <c r="S16">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>0</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0</v>
+      <c r="T16">
+        <v>68</v>
+      </c>
+      <c r="U16">
+        <v>45</v>
+      </c>
+      <c r="V16">
+        <v>56</v>
+      </c>
+      <c r="W16">
+        <v>67</v>
+      </c>
+      <c r="X16">
+        <v>234</v>
+      </c>
+      <c r="Y16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>89</v>
       </c>
       <c r="D17" s="8">
         <v>3</v>
@@ -2870,18 +3280,28 @@
         <v>3</v>
       </c>
       <c r="G17" s="13">
-        <f t="shared" ref="G17:G25" si="28">POWER((A17-$L$5),2)</f>
-        <v>9</v>
+        <f t="shared" ref="G17" si="28">POWER((A17-$L$5),2)</f>
+        <v>2809</v>
       </c>
       <c r="H17" s="13">
-        <f t="shared" ref="H17:H25" si="29">POWER((B17-$M$5),2)</f>
-        <v>9</v>
+        <f t="shared" ref="H17" si="29">POWER((B17-$M$5),2)</f>
+        <v>992016</v>
       </c>
       <c r="I17" s="13">
-        <f t="shared" ref="I17:I25" si="30">POWER((C17-$N$5),2)</f>
-        <v>9</v>
+        <f t="shared" ref="I17" si="30">POWER((C17-$N$5),2)</f>
+        <v>7396</v>
       </c>
       <c r="J17" s="13"/>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" s="13">
+        <f>$J$7</f>
+        <v>2699595</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
       <c r="Q17" t="s">
         <v>45</v>
       </c>
@@ -2891,16 +3311,34 @@
       <c r="S17">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>0</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0</v>
+      <c r="T17">
+        <v>34</v>
+      </c>
+      <c r="U17">
+        <v>56</v>
+      </c>
+      <c r="V17">
+        <v>45</v>
+      </c>
+      <c r="W17">
+        <v>45</v>
+      </c>
+      <c r="X17">
+        <v>34</v>
+      </c>
+      <c r="Y17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>78</v>
       </c>
       <c r="D18" s="8">
         <v>4</v>
@@ -2909,16 +3347,26 @@
         <v>3</v>
       </c>
       <c r="G18" s="13">
-        <f t="shared" ref="G18:G25" si="31">POWER((A18-$L$6),2)</f>
-        <v>16</v>
+        <f t="shared" ref="G18" si="31">POWER((A18-$L$6),2)</f>
+        <v>900</v>
       </c>
       <c r="H18" s="13">
-        <f t="shared" ref="H18:H25" si="32">POWER((B18-$M$6),2)</f>
-        <v>16</v>
+        <f t="shared" ref="H18" si="32">POWER((B18-$M$6),2)</f>
+        <v>952576</v>
       </c>
       <c r="I18" s="13">
-        <f t="shared" ref="I18:I25" si="33">POWER((C18-$N$6),2)</f>
-        <v>16</v>
+        <f t="shared" ref="I18" si="33">POWER((C18-$N$6),2)</f>
+        <v>5476</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18" s="13">
+        <f>$J$49</f>
+        <v>2780404</v>
+      </c>
+      <c r="O18" t="s">
+        <v>54</v>
       </c>
       <c r="Q18" t="s">
         <v>46</v>
@@ -2929,16 +3377,34 @@
       <c r="S18">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>0</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0</v>
+      <c r="T18">
+        <v>65</v>
+      </c>
+      <c r="U18">
+        <v>46</v>
+      </c>
+      <c r="V18">
+        <v>68</v>
+      </c>
+      <c r="W18">
+        <v>93</v>
+      </c>
+      <c r="X18">
+        <v>34</v>
+      </c>
+      <c r="Y18">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>68</v>
+      </c>
+      <c r="B19">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>65</v>
       </c>
       <c r="D19" s="8">
         <v>5</v>
@@ -2947,31 +3413,41 @@
         <v>3</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" ref="G19:G25" si="34">POWER((A19-$L$7),2)</f>
-        <v>25</v>
+        <f t="shared" ref="G19" si="34">POWER((A19-$L$7),2)</f>
+        <v>3969</v>
       </c>
       <c r="H19" s="13">
-        <f t="shared" ref="H19:H25" si="35">POWER((B19-$M$7),2)</f>
-        <v>25</v>
+        <f t="shared" ref="H19" si="35">POWER((B19-$M$7),2)</f>
+        <v>841</v>
       </c>
       <c r="I19" s="13">
-        <f t="shared" ref="I19:I25" si="36">POWER((C19-$N$7),2)</f>
-        <v>25</v>
+        <f t="shared" ref="I19" si="36">POWER((C19-$N$7),2)</f>
+        <v>3600</v>
       </c>
       <c r="J19" s="13">
         <f t="shared" ref="J19" si="37">SUM(G14:I19)</f>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>122.07317073170732</v>
-      </c>
-      <c r="B20" s="10">
-        <v>78.682926829268297</v>
-      </c>
-      <c r="C20" s="10">
-        <v>68.512195121951223</v>
+        <v>2109574</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19" s="13">
+        <f>$J$13</f>
+        <v>3145618</v>
+      </c>
+      <c r="O19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>78</v>
+      </c>
+      <c r="C20">
+        <v>45</v>
       </c>
       <c r="D20" s="11">
         <v>0</v>
@@ -2980,30 +3456,27 @@
         <v>4</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" ref="G20:G25" si="38">POWER((A20-$L$2),2)</f>
-        <v>14901.859012492565</v>
+        <f t="shared" ref="G20" si="38">POWER((A20-$L$2),2)</f>
+        <v>2916</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" ref="H20:H25" si="39">POWER((B20-$M$2),2)</f>
-        <v>6191.0029744199892</v>
+        <f t="shared" ref="H20" si="39">POWER((B20-$M$2),2)</f>
+        <v>6084</v>
       </c>
       <c r="I20" s="13">
-        <f t="shared" ref="I20:I25" si="40">POWER((C20-$N$2),2)</f>
-        <v>4693.9208804283171</v>
-      </c>
-      <c r="R20">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>139.34146341463415</v>
-      </c>
-      <c r="B21" s="12">
-        <v>80.756097560975604</v>
-      </c>
-      <c r="C21" s="12">
-        <v>91.097560975609753</v>
+        <f t="shared" ref="I20" si="40">POWER((C20-$N$2),2)</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>76</v>
+      </c>
+      <c r="B21">
+        <v>65</v>
+      </c>
+      <c r="C21">
+        <v>67</v>
       </c>
       <c r="D21" s="11">
         <v>1</v>
@@ -3012,30 +3485,27 @@
         <v>4</v>
       </c>
       <c r="G21" s="13">
-        <f t="shared" ref="G21:G25" si="41">POWER((A21-$L$3),2)</f>
-        <v>19138.360499702558</v>
+        <f t="shared" ref="G21" si="41">POWER((A21-$L$3),2)</f>
+        <v>5625</v>
       </c>
       <c r="H21" s="13">
-        <f t="shared" ref="H21:H25" si="42">POWER((B21-$M$3),2)</f>
-        <v>6361.0350981558586</v>
+        <f t="shared" ref="H21" si="42">POWER((B21-$M$3),2)</f>
+        <v>4096</v>
       </c>
       <c r="I21" s="13">
-        <f t="shared" ref="I21:I25" si="43">POWER((C21-$N$3),2)</f>
-        <v>8117.5704937537175</v>
-      </c>
-      <c r="R21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>133.09756097560975</v>
-      </c>
-      <c r="B22" s="12">
+        <f t="shared" ref="I21" si="43">POWER((C21-$N$3),2)</f>
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>56</v>
+      </c>
+      <c r="C22">
         <v>78</v>
-      </c>
-      <c r="C22" s="12">
-        <v>73.317073170731703</v>
       </c>
       <c r="D22" s="11">
         <v>2</v>
@@ -3044,30 +3514,27 @@
         <v>4</v>
       </c>
       <c r="G22" s="13">
-        <f t="shared" ref="G22:G25" si="44">POWER((A22-$L$4),2)</f>
-        <v>17186.570493753716</v>
+        <f t="shared" ref="G22" si="44">POWER((A22-$L$4),2)</f>
+        <v>1681</v>
       </c>
       <c r="H22" s="13">
-        <f t="shared" ref="H22:H25" si="45">POWER((B22-$M$4),2)</f>
+        <f t="shared" ref="H22" si="45">POWER((B22-$M$4),2)</f>
+        <v>2916</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" ref="I22" si="46">POWER((C22-$N$4),2)</f>
         <v>5776</v>
       </c>
-      <c r="I22" s="13">
-        <f t="shared" ref="I22:I25" si="46">POWER((C22-$N$4),2)</f>
-        <v>5086.1249256394995</v>
-      </c>
-      <c r="R22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <v>125.39024390243902</v>
-      </c>
-      <c r="B23" s="12">
-        <v>74.975609756097555</v>
-      </c>
-      <c r="C23" s="12">
-        <v>67.878048780487802</v>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>456</v>
+      </c>
+      <c r="B23">
+        <v>67</v>
+      </c>
+      <c r="C23">
+        <v>45</v>
       </c>
       <c r="D23" s="11">
         <v>3</v>
@@ -3076,31 +3543,28 @@
         <v>4</v>
       </c>
       <c r="G23" s="13">
-        <f t="shared" ref="G23:G25" si="47">POWER((A23-$L$5),2)</f>
-        <v>14979.371802498514</v>
+        <f t="shared" ref="G23" si="47">POWER((A23-$L$5),2)</f>
+        <v>205209</v>
       </c>
       <c r="H23" s="13">
-        <f t="shared" ref="H23:H25" si="48">POWER((B23-$M$5),2)</f>
-        <v>5180.4883997620454</v>
+        <f t="shared" ref="H23" si="48">POWER((B23-$M$5),2)</f>
+        <v>868624</v>
       </c>
       <c r="I23" s="13">
-        <f t="shared" ref="I23:I25" si="49">POWER((C23-$N$5),2)</f>
-        <v>4209.161213563355</v>
+        <f t="shared" ref="I23" si="49">POWER((C23-$N$5),2)</f>
+        <v>1764</v>
       </c>
       <c r="J23" s="13"/>
-      <c r="R23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <v>122.80487804878049</v>
-      </c>
-      <c r="B24" s="12">
-        <v>73.292682926829272</v>
-      </c>
-      <c r="C24" s="12">
-        <v>68.292682926829272</v>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>567</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>34</v>
       </c>
       <c r="D24" s="11">
         <v>4</v>
@@ -3109,30 +3573,27 @@
         <v>4</v>
       </c>
       <c r="G24" s="13">
-        <f t="shared" ref="G24:G25" si="50">POWER((A24-$L$6),2)</f>
-        <v>14114.599048185606</v>
+        <f t="shared" ref="G24" si="50">POWER((A24-$L$6),2)</f>
+        <v>316969</v>
       </c>
       <c r="H24" s="13">
-        <f t="shared" ref="H24:H25" si="51">POWER((B24-$M$6),2)</f>
-        <v>4801.475907198097</v>
+        <f t="shared" ref="H24" si="51">POWER((B24-$M$6),2)</f>
+        <v>988036</v>
       </c>
       <c r="I24" s="13">
-        <f t="shared" ref="I24:I25" si="52">POWER((C24-$N$6),2)</f>
-        <v>4133.5490779298043</v>
-      </c>
-      <c r="R24">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>118.77500000000001</v>
-      </c>
-      <c r="B25" s="12">
-        <v>72.875</v>
-      </c>
-      <c r="C25" s="12">
-        <v>67.45</v>
+        <f t="shared" ref="I24" si="52">POWER((C24-$N$6),2)</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>56</v>
+      </c>
+      <c r="C25">
+        <v>46</v>
       </c>
       <c r="D25" s="11">
         <v>5</v>
@@ -3142,33 +3603,30 @@
       </c>
       <c r="G25" s="13">
         <f t="shared" ref="G25" si="53">POWER((A25-$L$7),2)</f>
-        <v>12944.750625000001</v>
+        <v>1600</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" ref="H25" si="54">POWER((B25-$M$7),2)</f>
-        <v>4607.015625</v>
+        <v>2601</v>
       </c>
       <c r="I25" s="13">
         <f t="shared" ref="I25" si="55">POWER((C25-$N$7),2)</f>
-        <v>3900.0025000000005</v>
+        <v>1681</v>
       </c>
       <c r="J25" s="13">
         <f t="shared" ref="J25" si="56">SUM(G20:I25)</f>
-        <v>156322.85857748362</v>
-      </c>
-      <c r="R25">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>127.02500000000001</v>
-      </c>
-      <c r="B26" s="7">
-        <v>84.474999999999994</v>
-      </c>
-      <c r="C26" s="7">
-        <v>99.075000000000003</v>
+        <v>2422859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>67</v>
+      </c>
+      <c r="C26">
+        <v>76</v>
       </c>
       <c r="D26" s="8">
         <v>0</v>
@@ -3178,29 +3636,26 @@
       </c>
       <c r="G26" s="13">
         <f>POWER((A26-$L$2),2)</f>
-        <v>16135.350625000001</v>
+        <v>4</v>
       </c>
       <c r="H26" s="13">
         <f>POWER((B26-$M$2),2)</f>
-        <v>7136.0256249999993</v>
+        <v>4489</v>
       </c>
       <c r="I26" s="13">
         <f>POWER((C26-$N$2),2)</f>
-        <v>9815.8556250000001</v>
-      </c>
-      <c r="R26">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>139.30000000000001</v>
-      </c>
-      <c r="B27" s="9">
-        <v>88.85</v>
-      </c>
-      <c r="C27" s="9">
-        <v>127.1</v>
+        <v>5776</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>67</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -3210,29 +3665,26 @@
       </c>
       <c r="G27" s="13">
         <f>POWER((A27-$L$3),2)</f>
-        <v>19126.890000000003</v>
+        <v>1089</v>
       </c>
       <c r="H27" s="13">
         <f>POWER((B27-$M$3),2)</f>
-        <v>7717.6224999999986</v>
+        <v>4356</v>
       </c>
       <c r="I27" s="13">
         <f>POWER((C27-$N$3),2)</f>
-        <v>15901.21</v>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>136.32499999999999</v>
-      </c>
-      <c r="B28" s="9">
-        <v>86.275000000000006</v>
-      </c>
-      <c r="C28" s="9">
-        <v>113.625</v>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
       </c>
       <c r="D28" s="8">
         <v>2</v>
@@ -3242,29 +3694,26 @@
       </c>
       <c r="G28" s="13">
         <f>POWER((A28-$L$4),2)</f>
-        <v>18043.205624999999</v>
+        <v>2916</v>
       </c>
       <c r="H28" s="13">
         <f>POWER((B28-$M$4),2)</f>
-        <v>7102.2756250000011</v>
+        <v>2916</v>
       </c>
       <c r="I28" s="13">
         <f>POWER((C28-$N$4),2)</f>
-        <v>12460.140625</v>
-      </c>
-      <c r="R28">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>131.375</v>
-      </c>
-      <c r="B29" s="9">
-        <v>82.9</v>
-      </c>
-      <c r="C29" s="9">
-        <v>108</v>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>68</v>
+      </c>
+      <c r="B29">
+        <v>657</v>
+      </c>
+      <c r="C29">
+        <v>57</v>
       </c>
       <c r="D29" s="8">
         <v>3</v>
@@ -3274,30 +3723,27 @@
       </c>
       <c r="G29" s="13">
         <f>POWER((A29-$L$5),2)</f>
-        <v>16480.140625</v>
+        <v>4225</v>
       </c>
       <c r="H29" s="13">
         <f>POWER((B29-$M$5),2)</f>
-        <v>6384.0100000000011</v>
+        <v>116964</v>
       </c>
       <c r="I29" s="13">
         <f>POWER((C29-$N$5),2)</f>
-        <v>11025</v>
+        <v>2916</v>
       </c>
       <c r="J29" s="13"/>
-      <c r="R29">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>126.05</v>
-      </c>
-      <c r="B30" s="9">
-        <v>81.8</v>
-      </c>
-      <c r="C30" s="9">
-        <v>108.575</v>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>456</v>
+      </c>
+      <c r="B30">
+        <v>567</v>
+      </c>
+      <c r="C30">
+        <v>42</v>
       </c>
       <c r="D30" s="8">
         <v>4</v>
@@ -3307,29 +3753,26 @@
       </c>
       <c r="G30" s="13">
         <f>POWER((A30-$L$6),2)</f>
-        <v>14896.202499999999</v>
+        <v>204304</v>
       </c>
       <c r="H30" s="13">
         <f>POWER((B30-$M$6),2)</f>
-        <v>6052.8399999999992</v>
+        <v>186624</v>
       </c>
       <c r="I30" s="13">
         <f>POWER((C30-$N$6),2)</f>
-        <v>10935.930625000001</v>
-      </c>
-      <c r="R30">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>124.4</v>
-      </c>
-      <c r="B31" s="9">
-        <v>81.3</v>
-      </c>
-      <c r="C31" s="9">
-        <v>104.925</v>
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>56</v>
+      </c>
+      <c r="B31">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>68</v>
       </c>
       <c r="D31" s="8">
         <v>5</v>
@@ -3339,33 +3782,30 @@
       </c>
       <c r="G31" s="13">
         <f>POWER((A31-$L$7),2)</f>
-        <v>14256.36</v>
+        <v>2601</v>
       </c>
       <c r="H31" s="13">
         <f>POWER((B31-$M$7),2)</f>
-        <v>5821.69</v>
+        <v>1600</v>
       </c>
       <c r="I31" s="13">
         <f>POWER((C31-$N$7),2)</f>
-        <v>9985.0056249999998</v>
+        <v>3969</v>
       </c>
       <c r="J31" s="13">
         <f>SUM(G26:I31)</f>
-        <v>209275.75562499999</v>
-      </c>
-      <c r="R31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>111.02061855670104</v>
-      </c>
-      <c r="B32" s="10">
-        <v>68.958762886597938</v>
-      </c>
-      <c r="C32" s="10">
-        <v>74.876288659793815</v>
+        <v>547347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>546</v>
+      </c>
+      <c r="C32">
+        <v>33</v>
       </c>
       <c r="D32" s="11">
         <v>0</v>
@@ -3374,30 +3814,27 @@
         <v>6</v>
       </c>
       <c r="G32" s="13">
-        <f t="shared" ref="G32:G49" si="57">POWER((A32-$L$2),2)</f>
-        <v>12325.577744712511</v>
+        <f t="shared" ref="G32" si="57">POWER((A32-$L$2),2)</f>
+        <v>1156</v>
       </c>
       <c r="H32" s="13">
-        <f t="shared" ref="H32:H49" si="58">POWER((B32-$M$2),2)</f>
-        <v>4755.3109788500369</v>
+        <f t="shared" ref="H32" si="58">POWER((B32-$M$2),2)</f>
+        <v>298116</v>
       </c>
       <c r="I32" s="13">
-        <f t="shared" ref="I32:I49" si="59">POWER((C32-$N$2),2)</f>
-        <v>5606.4586034647682</v>
-      </c>
-      <c r="R32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>125.30927835051547</v>
-      </c>
-      <c r="B33" s="12">
-        <v>71.474226804123717</v>
-      </c>
-      <c r="C33" s="12">
-        <v>101.71134020618557</v>
+        <f t="shared" ref="I32" si="59">POWER((C32-$N$2),2)</f>
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>567</v>
+      </c>
+      <c r="B33">
+        <v>67</v>
+      </c>
+      <c r="C33">
+        <v>37</v>
       </c>
       <c r="D33" s="11">
         <v>1</v>
@@ -3406,30 +3843,27 @@
         <v>6</v>
       </c>
       <c r="G33" s="13">
-        <f t="shared" ref="G33:G49" si="60">POWER((A33-$L$3),2)</f>
-        <v>15452.796684025934</v>
+        <f t="shared" ref="G33" si="60">POWER((A33-$L$3),2)</f>
+        <v>320356</v>
       </c>
       <c r="H33" s="13">
-        <f t="shared" ref="H33:H49" si="61">POWER((B33-$M$3),2)</f>
-        <v>4966.6166436390695</v>
+        <f t="shared" ref="H33" si="61">POWER((B33-$M$3),2)</f>
+        <v>4356</v>
       </c>
       <c r="I33" s="13">
-        <f t="shared" ref="I33:I49" si="62">POWER((C33-$N$3),2)</f>
-        <v>10142.774046126049</v>
-      </c>
-      <c r="R33">
+        <f t="shared" ref="I33" si="62">POWER((C33-$N$3),2)</f>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>120.42268041237114</v>
-      </c>
-      <c r="B34" s="12">
-        <v>68.329896907216494</v>
-      </c>
-      <c r="C34" s="12">
-        <v>79.773195876288653</v>
+      <c r="B34">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>83</v>
       </c>
       <c r="D34" s="11">
         <v>2</v>
@@ -3438,30 +3872,27 @@
         <v>6</v>
       </c>
       <c r="G34" s="13">
-        <f t="shared" ref="G34:G49" si="63">POWER((A34-$L$4),2)</f>
-        <v>14023.93123605059</v>
+        <f t="shared" ref="G34" si="63">POWER((A34-$L$4),2)</f>
+        <v>441</v>
       </c>
       <c r="H34" s="13">
-        <f t="shared" ref="H34:H49" si="64">POWER((B34-$M$4),2)</f>
-        <v>4399.6552237219685</v>
+        <f t="shared" ref="H34" si="64">POWER((B34-$M$4),2)</f>
+        <v>1849</v>
       </c>
       <c r="I34" s="13">
-        <f t="shared" ref="I34:I49" si="65">POWER((C34-$N$4),2)</f>
-        <v>6048.6699968115627</v>
-      </c>
-      <c r="R34">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>114.51546391752578</v>
-      </c>
-      <c r="B35" s="12">
-        <v>65.164948453608247</v>
-      </c>
-      <c r="C35" s="12">
-        <v>73.701030927835049</v>
+        <f t="shared" ref="I34" si="65">POWER((C34-$N$4),2)</f>
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>54</v>
+      </c>
+      <c r="B35">
+        <v>56</v>
+      </c>
+      <c r="C35">
+        <v>25</v>
       </c>
       <c r="D35" s="11">
         <v>3</v>
@@ -3470,31 +3901,28 @@
         <v>6</v>
       </c>
       <c r="G35" s="13">
-        <f t="shared" ref="G35:G49" si="66">POWER((A35-$L$5),2)</f>
-        <v>12435.698692740994</v>
+        <f t="shared" ref="G35" si="66">POWER((A35-$L$5),2)</f>
+        <v>2601</v>
       </c>
       <c r="H35" s="13">
-        <f t="shared" ref="H35:H49" si="67">POWER((B35-$M$5),2)</f>
-        <v>3864.4808162397703</v>
+        <f t="shared" ref="H35" si="67">POWER((B35-$M$5),2)</f>
+        <v>889249</v>
       </c>
       <c r="I35" s="13">
-        <f t="shared" ref="I35:I49" si="68">POWER((C35-$N$5),2)</f>
-        <v>4998.6357742586879</v>
+        <f t="shared" ref="I35" si="68">POWER((C35-$N$5),2)</f>
+        <v>484</v>
       </c>
       <c r="J35" s="13"/>
-      <c r="R35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <v>111.78350515463917</v>
-      </c>
-      <c r="B36" s="12">
-        <v>63.948453608247419</v>
-      </c>
-      <c r="C36" s="12">
-        <v>72.711340206185568</v>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>56</v>
+      </c>
+      <c r="B36">
+        <v>87</v>
+      </c>
+      <c r="C36">
+        <v>65</v>
       </c>
       <c r="D36" s="11">
         <v>4</v>
@@ -3503,30 +3931,27 @@
         <v>6</v>
       </c>
       <c r="G36" s="13">
-        <f t="shared" ref="G36:G49" si="69">POWER((A36-$L$6),2)</f>
-        <v>11617.28398342013</v>
+        <f t="shared" ref="G36" si="69">POWER((A36-$L$6),2)</f>
+        <v>2704</v>
       </c>
       <c r="H36" s="13">
-        <f t="shared" ref="H36:H49" si="70">POWER((B36-$M$6),2)</f>
-        <v>3593.8170900201931</v>
+        <f t="shared" ref="H36" si="70">POWER((B36-$M$6),2)</f>
+        <v>831744</v>
       </c>
       <c r="I36" s="13">
-        <f t="shared" ref="I36:I49" si="71">POWER((C36-$N$6),2)</f>
-        <v>4721.2482729301737</v>
-      </c>
-      <c r="R36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
-        <v>109.61290322580645</v>
-      </c>
-      <c r="B37" s="12">
-        <v>63.268817204301072</v>
-      </c>
-      <c r="C37" s="12">
-        <v>73.483870967741936</v>
+        <f t="shared" ref="I36" si="71">POWER((C36-$N$6),2)</f>
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>67</v>
+      </c>
+      <c r="B37">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>93</v>
       </c>
       <c r="D37" s="11">
         <v>5</v>
@@ -3535,34 +3960,31 @@
         <v>6</v>
       </c>
       <c r="G37" s="13">
-        <f t="shared" ref="G37:G49" si="72">POWER((A37-$L$7),2)</f>
-        <v>10943.859521331946</v>
+        <f t="shared" ref="G37" si="72">POWER((A37-$L$7),2)</f>
+        <v>3844</v>
       </c>
       <c r="H37" s="13">
-        <f t="shared" ref="H37:H49" si="73">POWER((B37-$M$7),2)</f>
-        <v>3395.2550583882526</v>
+        <f t="shared" ref="H37" si="73">POWER((B37-$M$7),2)</f>
+        <v>1600</v>
       </c>
       <c r="I37" s="13">
-        <f t="shared" ref="I37:I49" si="74">POWER((C37-$N$7),2)</f>
-        <v>4690.0405827263266</v>
+        <f t="shared" ref="I37" si="74">POWER((C37-$N$7),2)</f>
+        <v>7744</v>
       </c>
       <c r="J37" s="13">
         <f t="shared" ref="J37" si="75">SUM(G32:I37)</f>
-        <v>137982.11094945896</v>
-      </c>
-      <c r="R37">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>103.31578947368421</v>
-      </c>
-      <c r="B38" s="7">
-        <v>65.65789473684211</v>
-      </c>
-      <c r="C38" s="7">
-        <v>82.184210526315795</v>
+        <v>2378911</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>435</v>
+      </c>
+      <c r="B38">
+        <v>87</v>
+      </c>
+      <c r="C38">
+        <v>32</v>
       </c>
       <c r="D38" s="8">
         <v>0</v>
@@ -3571,30 +3993,27 @@
         <v>7</v>
       </c>
       <c r="G38" s="13">
-        <f t="shared" ref="G38:G49" si="76">POWER((A38-$L$2),2)</f>
-        <v>10674.152354570637</v>
+        <f t="shared" ref="G38" si="76">POWER((A38-$L$2),2)</f>
+        <v>189225</v>
       </c>
       <c r="H38" s="13">
-        <f t="shared" ref="H38:H49" si="77">POWER((B38-$M$2),2)</f>
-        <v>4310.9591412742384</v>
+        <f t="shared" ref="H38" si="77">POWER((B38-$M$2),2)</f>
+        <v>7569</v>
       </c>
       <c r="I38" s="13">
-        <f t="shared" ref="I38:I49" si="78">POWER((C38-$N$2),2)</f>
-        <v>6754.2444598337961</v>
-      </c>
-      <c r="R38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>112.42105263157895</v>
-      </c>
-      <c r="B39" s="9">
-        <v>66.35526315789474</v>
-      </c>
-      <c r="C39" s="9">
-        <v>109.89473684210526</v>
+        <f t="shared" ref="I38" si="78">POWER((C38-$N$2),2)</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>235</v>
       </c>
       <c r="D39" s="8">
         <v>1</v>
@@ -3603,30 +4022,27 @@
         <v>7</v>
       </c>
       <c r="G39" s="13">
-        <f t="shared" ref="G39:G49" si="79">POWER((A39-$L$3),2)</f>
-        <v>12414.650969529086</v>
+        <f t="shared" ref="G39" si="79">POWER((A39-$L$3),2)</f>
+        <v>1089</v>
       </c>
       <c r="H39" s="13">
-        <f t="shared" ref="H39:H49" si="80">POWER((B39-$M$3),2)</f>
-        <v>4271.3104224376739</v>
+        <f t="shared" ref="H39" si="80">POWER((B39-$M$3),2)</f>
+        <v>3025</v>
       </c>
       <c r="I39" s="13">
-        <f t="shared" ref="I39:I49" si="81">POWER((C39-$N$3),2)</f>
-        <v>11858.063711911356</v>
-      </c>
-      <c r="R39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
-        <v>110.5</v>
-      </c>
-      <c r="B40" s="9">
-        <v>66.39473684210526</v>
-      </c>
-      <c r="C40" s="9">
-        <v>91.065789473684205</v>
+        <f t="shared" ref="I39" si="81">POWER((C39-$N$3),2)</f>
+        <v>54756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>67</v>
+      </c>
+      <c r="C40">
+        <v>23</v>
       </c>
       <c r="D40" s="8">
         <v>2</v>
@@ -3635,30 +4051,27 @@
         <v>7</v>
       </c>
       <c r="G40" s="13">
-        <f t="shared" ref="G40:G49" si="82">POWER((A40-$L$4),2)</f>
-        <v>11772.25</v>
+        <f t="shared" ref="G40" si="82">POWER((A40-$L$4),2)</f>
+        <v>1849</v>
       </c>
       <c r="H40" s="13">
-        <f t="shared" ref="H40:H49" si="83">POWER((B40-$M$4),2)</f>
-        <v>4146.6821329639888</v>
+        <f t="shared" ref="H40" si="83">POWER((B40-$M$4),2)</f>
+        <v>4225</v>
       </c>
       <c r="I40" s="13">
-        <f t="shared" ref="I40:I49" si="84">POWER((C40-$N$4),2)</f>
-        <v>7932.7148545706359</v>
-      </c>
-      <c r="R40">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>105.76315789473684</v>
-      </c>
-      <c r="B41" s="9">
-        <v>63.10526315789474</v>
-      </c>
-      <c r="C41" s="9">
-        <v>83.368421052631575</v>
+        <f t="shared" ref="I40" si="84">POWER((C40-$N$4),2)</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>56</v>
+      </c>
+      <c r="B41">
+        <v>78</v>
+      </c>
+      <c r="C41">
+        <v>353</v>
       </c>
       <c r="D41" s="8">
         <v>3</v>
@@ -3667,31 +4080,28 @@
         <v>7</v>
       </c>
       <c r="G41" s="13">
-        <f t="shared" ref="G41:G49" si="85">POWER((A41-$L$5),2)</f>
-        <v>10560.266620498614</v>
+        <f t="shared" ref="G41" si="85">POWER((A41-$L$5),2)</f>
+        <v>2809</v>
       </c>
       <c r="H41" s="13">
-        <f t="shared" ref="H41:H49" si="86">POWER((B41-$M$5),2)</f>
-        <v>3612.6426592797789</v>
+        <f t="shared" ref="H41" si="86">POWER((B41-$M$5),2)</f>
+        <v>848241</v>
       </c>
       <c r="I41" s="13">
-        <f t="shared" ref="I41:I49" si="87">POWER((C41-$N$5),2)</f>
-        <v>6459.083102493074</v>
+        <f t="shared" ref="I41" si="87">POWER((C41-$N$5),2)</f>
+        <v>122500</v>
       </c>
       <c r="J41" s="13"/>
-      <c r="R41">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>104.05263157894737</v>
-      </c>
-      <c r="B42" s="9">
-        <v>61.407894736842103</v>
-      </c>
-      <c r="C42" s="9">
-        <v>83.223684210526315</v>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>456</v>
+      </c>
+      <c r="C42">
+        <v>121</v>
       </c>
       <c r="D42" s="8">
         <v>4</v>
@@ -3700,30 +4110,27 @@
         <v>7</v>
       </c>
       <c r="G42" s="13">
-        <f t="shared" ref="G42:G49" si="88">POWER((A42-$L$6),2)</f>
-        <v>10010.529085872577</v>
+        <f t="shared" ref="G42" si="88">POWER((A42-$L$6),2)</f>
+        <v>2809</v>
       </c>
       <c r="H42" s="13">
-        <f t="shared" ref="H42:H49" si="89">POWER((B42-$M$6),2)</f>
-        <v>3295.6663781163434</v>
+        <f t="shared" ref="H42" si="89">POWER((B42-$M$6),2)</f>
+        <v>294849</v>
       </c>
       <c r="I42" s="13">
-        <f t="shared" ref="I42:I49" si="90">POWER((C42-$N$6),2)</f>
-        <v>6276.3921398891962</v>
-      </c>
-      <c r="R42">
+        <f t="shared" ref="I42" si="90">POWER((C42-$N$6),2)</f>
+        <v>13689</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>234</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <v>102</v>
-      </c>
-      <c r="B43" s="9">
-        <v>61.375</v>
-      </c>
-      <c r="C43" s="9">
-        <v>82.916666666666671</v>
+      <c r="B43">
+        <v>34</v>
+      </c>
+      <c r="C43">
+        <v>34</v>
       </c>
       <c r="D43" s="8">
         <v>5</v>
@@ -3732,31 +4139,31 @@
         <v>7</v>
       </c>
       <c r="G43" s="13">
-        <f t="shared" ref="G43:G49" si="91">POWER((A43-$L$7),2)</f>
-        <v>9409</v>
+        <f t="shared" ref="G43" si="91">POWER((A43-$L$7),2)</f>
+        <v>52441</v>
       </c>
       <c r="H43" s="13">
-        <f t="shared" ref="H43:H49" si="92">POWER((B43-$M$7),2)</f>
-        <v>3178.140625</v>
+        <f t="shared" ref="H43" si="92">POWER((B43-$M$7),2)</f>
+        <v>841</v>
       </c>
       <c r="I43" s="13">
-        <f t="shared" ref="I43:I49" si="93">POWER((C43-$N$7),2)</f>
-        <v>6071.0069444444453</v>
+        <f t="shared" ref="I43" si="93">POWER((C43-$N$7),2)</f>
+        <v>841</v>
       </c>
       <c r="J43" s="13">
         <f t="shared" ref="J43" si="94">SUM(G38:I43)</f>
-        <v>133007.75560268544</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
-        <v>107.78749999999999</v>
-      </c>
-      <c r="B44" s="10">
-        <v>69.787499999999994</v>
-      </c>
-      <c r="C44" s="10">
-        <v>68.575000000000003</v>
+        <v>1602223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>435</v>
+      </c>
+      <c r="B44">
+        <v>546</v>
+      </c>
+      <c r="C44">
+        <v>45</v>
       </c>
       <c r="D44" s="11">
         <v>0</v>
@@ -3765,27 +4172,27 @@
         <v>8</v>
       </c>
       <c r="G44" s="13">
-        <f t="shared" ref="G44:G49" si="95">POWER((A44-$L$2),2)</f>
-        <v>11618.145156249999</v>
+        <f t="shared" ref="G44" si="95">POWER((A44-$L$2),2)</f>
+        <v>189225</v>
       </c>
       <c r="H44" s="13">
-        <f t="shared" ref="H44:H49" si="96">POWER((B44-$M$2),2)</f>
-        <v>4870.2951562499993</v>
+        <f t="shared" ref="H44" si="96">POWER((B44-$M$2),2)</f>
+        <v>298116</v>
       </c>
       <c r="I44" s="13">
-        <f t="shared" ref="I44:I49" si="97">POWER((C44-$N$2),2)</f>
-        <v>4702.5306250000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
-        <v>116.28749999999999</v>
-      </c>
-      <c r="B45" s="12">
-        <v>69.55</v>
-      </c>
-      <c r="C45" s="12">
-        <v>92.112499999999997</v>
+        <f t="shared" ref="I44" si="97">POWER((C44-$N$2),2)</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>767</v>
+      </c>
+      <c r="C45">
+        <v>67</v>
       </c>
       <c r="D45" s="11">
         <v>1</v>
@@ -3794,27 +4201,27 @@
         <v>8</v>
       </c>
       <c r="G45" s="13">
-        <f t="shared" ref="G45:G49" si="98">POWER((A45-$L$3),2)</f>
-        <v>13291.207656249999</v>
+        <f t="shared" ref="G45" si="98">POWER((A45-$L$3),2)</f>
+        <v>3025</v>
       </c>
       <c r="H45" s="13">
-        <f t="shared" ref="H45:H49" si="99">POWER((B45-$M$3),2)</f>
-        <v>4699.1025</v>
+        <f t="shared" ref="H45" si="99">POWER((B45-$M$3),2)</f>
+        <v>586756</v>
       </c>
       <c r="I45" s="13">
-        <f t="shared" ref="I45:I49" si="100">POWER((C45-$N$3),2)</f>
-        <v>8301.4876562499994</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
-        <v>113.3875</v>
-      </c>
-      <c r="B46" s="12">
-        <v>68.575000000000003</v>
-      </c>
-      <c r="C46" s="12">
-        <v>70.8125</v>
+        <f t="shared" ref="I45" si="100">POWER((C45-$N$3),2)</f>
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>67</v>
+      </c>
+      <c r="C46">
+        <v>686</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -3823,27 +4230,27 @@
         <v>8</v>
       </c>
       <c r="G46" s="13">
-        <f t="shared" ref="G46:G49" si="101">POWER((A46-$L$4),2)</f>
-        <v>12407.175156250001</v>
+        <f t="shared" ref="G46" si="101">POWER((A46-$L$4),2)</f>
+        <v>3025</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" ref="H46:H49" si="102">POWER((B46-$M$4),2)</f>
-        <v>4432.2306250000001</v>
+        <f t="shared" ref="H46" si="102">POWER((B46-$M$4),2)</f>
+        <v>4225</v>
       </c>
       <c r="I46" s="13">
-        <f t="shared" ref="I46:I49" si="103">POWER((C46-$N$4),2)</f>
-        <v>4735.16015625</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
-        <v>109.9</v>
-      </c>
-      <c r="B47" s="12">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="C47" s="12">
-        <v>67.1875</v>
+        <f t="shared" ref="I46" si="103">POWER((C46-$N$4),2)</f>
+        <v>467856</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>57</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
       </c>
       <c r="D47" s="11">
         <v>3</v>
@@ -3852,28 +4259,28 @@
         <v>8</v>
       </c>
       <c r="G47" s="13">
-        <f t="shared" ref="G47:G49" si="104">POWER((A47-$L$5),2)</f>
-        <v>11427.61</v>
+        <f t="shared" ref="G47" si="104">POWER((A47-$L$5),2)</f>
+        <v>2916</v>
       </c>
       <c r="H47" s="13">
-        <f t="shared" ref="H47:H49" si="105">POWER((B47-$M$5),2)</f>
-        <v>4147.3600000000006</v>
+        <f t="shared" ref="H47" si="105">POWER((B47-$M$5),2)</f>
+        <v>910116</v>
       </c>
       <c r="I47" s="13">
-        <f t="shared" ref="I47:I49" si="106">POWER((C47-$N$5),2)</f>
-        <v>4120.03515625</v>
+        <f t="shared" ref="I47" si="106">POWER((C47-$N$5),2)</f>
+        <v>1849</v>
       </c>
       <c r="J47" s="13"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
-        <v>107.3125</v>
-      </c>
-      <c r="B48" s="12">
-        <v>65.962500000000006</v>
-      </c>
-      <c r="C48" s="12">
-        <v>66.237499999999997</v>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>65</v>
+      </c>
+      <c r="B48">
+        <v>457</v>
+      </c>
+      <c r="C48">
+        <v>45</v>
       </c>
       <c r="D48" s="11">
         <v>4</v>
@@ -3882,27 +4289,27 @@
         <v>8</v>
       </c>
       <c r="G48" s="13">
-        <f t="shared" ref="G48:G49" si="107">POWER((A48-$L$6),2)</f>
-        <v>10673.47265625</v>
+        <f t="shared" ref="G48" si="107">POWER((A48-$L$6),2)</f>
+        <v>3721</v>
       </c>
       <c r="H48" s="13">
-        <f t="shared" ref="H48:H49" si="108">POWER((B48-$M$6),2)</f>
-        <v>3839.3514062500008</v>
+        <f t="shared" ref="H48" si="108">POWER((B48-$M$6),2)</f>
+        <v>293764</v>
       </c>
       <c r="I48" s="13">
-        <f t="shared" ref="I48:I49" si="109">POWER((C48-$N$6),2)</f>
-        <v>3873.5064062499996</v>
+        <f t="shared" ref="I48" si="109">POWER((C48-$N$6),2)</f>
+        <v>1681</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
-        <v>106.05555555555556</v>
-      </c>
-      <c r="B49" s="12">
-        <v>66.194444444444443</v>
-      </c>
-      <c r="C49" s="12">
-        <v>67.138888888888886</v>
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>67</v>
+      </c>
+      <c r="C49">
+        <v>53</v>
       </c>
       <c r="D49" s="11">
         <v>5</v>
@@ -3912,23 +4319,32 @@
       </c>
       <c r="G49" s="13">
         <f t="shared" ref="G49" si="110">POWER((A49-$L$7),2)</f>
-        <v>10212.225308641975</v>
+        <v>1600</v>
       </c>
       <c r="H49" s="13">
         <f t="shared" ref="H49" si="111">POWER((B49-$M$7),2)</f>
-        <v>3744.7600308641972</v>
+        <v>3844</v>
       </c>
       <c r="I49" s="13">
         <f t="shared" ref="I49" si="112">POWER((C49-$N$7),2)</f>
-        <v>3861.2415123456785</v>
+        <v>2304</v>
       </c>
       <c r="J49" s="13">
         <f t="shared" ref="J49" si="113">SUM(G44:I49)</f>
-        <v>124956.89716435186</v>
+        <v>2780404</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M12:M19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$J$1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
